--- a/Code/Results/Cases/Case_5_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_232/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.876756195463372</v>
+        <v>0.4002345243975469</v>
       </c>
       <c r="C2">
-        <v>0.1022085525067666</v>
+        <v>0.0292379035167869</v>
       </c>
       <c r="D2">
-        <v>0.1380814871882308</v>
+        <v>0.1684952640472517</v>
       </c>
       <c r="E2">
-        <v>0.09929593282086202</v>
+        <v>0.1558357427434238</v>
       </c>
       <c r="F2">
-        <v>0.8192372146985818</v>
+        <v>1.589051218795753</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1007206253599051</v>
+        <v>0.1840581092676743</v>
       </c>
       <c r="K2">
-        <v>0.883570532506468</v>
+        <v>0.3524572108632924</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3193299365818802</v>
+        <v>0.2310193804041845</v>
       </c>
       <c r="N2">
-        <v>0.9247310960061128</v>
+        <v>1.941613291519175</v>
       </c>
       <c r="O2">
-        <v>1.945353665385369</v>
+        <v>3.949852420747931</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.761751838674769</v>
+        <v>0.3678260096117185</v>
       </c>
       <c r="C3">
-        <v>0.0903440047685109</v>
+        <v>0.02554740063331451</v>
       </c>
       <c r="D3">
-        <v>0.1234987968371968</v>
+        <v>0.1653073817920472</v>
       </c>
       <c r="E3">
-        <v>0.09151641843213199</v>
+        <v>0.1546393167853886</v>
       </c>
       <c r="F3">
-        <v>0.7930223516576476</v>
+        <v>1.592261207634152</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09548066561085733</v>
+        <v>0.1838083673128992</v>
       </c>
       <c r="K3">
-        <v>0.7675394486579137</v>
+        <v>0.3189940532914477</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2795985678679074</v>
+        <v>0.2208632601734948</v>
       </c>
       <c r="N3">
-        <v>0.9684449836921463</v>
+        <v>1.960455524992266</v>
       </c>
       <c r="O3">
-        <v>1.912049924261595</v>
+        <v>3.966629397327495</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6913802399800772</v>
+        <v>0.348042742285628</v>
       </c>
       <c r="C4">
-        <v>0.0830519522727684</v>
+        <v>0.02327198865151558</v>
       </c>
       <c r="D4">
-        <v>0.1146337808656881</v>
+        <v>0.1634166907763728</v>
       </c>
       <c r="E4">
-        <v>0.08684321662614991</v>
+        <v>0.1539715075597314</v>
       </c>
       <c r="F4">
-        <v>0.7782243748658217</v>
+        <v>1.594967748583379</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09240088362565757</v>
+        <v>0.1837366976301169</v>
       </c>
       <c r="K4">
-        <v>0.6964572113008671</v>
+        <v>0.2985130855275884</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2553673037791206</v>
+        <v>0.2147240888939876</v>
       </c>
       <c r="N4">
-        <v>0.9964196806609742</v>
+        <v>1.972615078615114</v>
       </c>
       <c r="O4">
-        <v>1.894975864148492</v>
+        <v>3.978778437857443</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6627531146759793</v>
+        <v>0.3400104637549646</v>
       </c>
       <c r="C5">
-        <v>0.08007771164437827</v>
+        <v>0.02234241728579889</v>
       </c>
       <c r="D5">
-        <v>0.1110420204926186</v>
+        <v>0.1626630749418041</v>
       </c>
       <c r="E5">
-        <v>0.08496347892728551</v>
+        <v>0.1537162120047846</v>
       </c>
       <c r="F5">
-        <v>0.7725066788027917</v>
+        <v>1.596255840223371</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09117880999461647</v>
+        <v>0.1837280565285297</v>
       </c>
       <c r="K5">
-        <v>0.6675207963176177</v>
+        <v>0.290183874743775</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.245529684186458</v>
+        <v>0.2122468196736591</v>
       </c>
       <c r="N5">
-        <v>1.008098691272497</v>
+        <v>1.977718665749172</v>
       </c>
       <c r="O5">
-        <v>1.888832082413117</v>
+        <v>3.98419421570226</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6580023076057842</v>
+        <v>0.3386785094795357</v>
       </c>
       <c r="C6">
-        <v>0.07958365566683767</v>
+        <v>0.02218792381748358</v>
       </c>
       <c r="D6">
-        <v>0.110446824755897</v>
+        <v>0.162538958276059</v>
       </c>
       <c r="E6">
-        <v>0.08465279826404881</v>
+        <v>0.1536748389022264</v>
       </c>
       <c r="F6">
-        <v>0.7715757483490648</v>
+        <v>1.596480915109105</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09097783018444972</v>
+        <v>0.1837278645598772</v>
       </c>
       <c r="K6">
-        <v>0.6627174558946933</v>
+        <v>0.2888018531401286</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2438982538829713</v>
+        <v>0.2118369553211288</v>
       </c>
       <c r="N6">
-        <v>1.010054665513257</v>
+        <v>1.978575080459729</v>
       </c>
       <c r="O6">
-        <v>1.887860098758949</v>
+        <v>3.985121591112957</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6909939765806428</v>
+        <v>0.3479342958412701</v>
       </c>
       <c r="C7">
-        <v>0.0830118525420005</v>
+        <v>0.02325946146702051</v>
       </c>
       <c r="D7">
-        <v>0.114585258854305</v>
+        <v>0.1634064588819513</v>
       </c>
       <c r="E7">
-        <v>0.08681776788252193</v>
+        <v>0.1539679963022955</v>
       </c>
       <c r="F7">
-        <v>0.7781460160937357</v>
+        <v>1.594984370313135</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09238427095031909</v>
+        <v>0.183736497790008</v>
       </c>
       <c r="K7">
-        <v>0.696066855851285</v>
+        <v>0.2984006856286499</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2552344867993455</v>
+        <v>0.2146905801785834</v>
       </c>
       <c r="N7">
-        <v>0.9965760656953186</v>
+        <v>1.972683306195194</v>
       </c>
       <c r="O7">
-        <v>1.894889755411299</v>
+        <v>3.978849594025561</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8370458148090734</v>
+        <v>0.3890363294037229</v>
       </c>
       <c r="C8">
-        <v>0.09811860375084791</v>
+        <v>0.02796740286039778</v>
       </c>
       <c r="D8">
-        <v>0.1330339957371081</v>
+        <v>0.1673822942559724</v>
       </c>
       <c r="E8">
-        <v>0.09659122981897283</v>
+        <v>0.1554093764511997</v>
       </c>
       <c r="F8">
-        <v>0.8099204005041969</v>
+        <v>1.590005457046189</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09888432628727628</v>
+        <v>0.1839550630701439</v>
       </c>
       <c r="K8">
-        <v>0.8435230746949287</v>
+        <v>0.3409057801354152</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.305593796288349</v>
+        <v>0.2274975727689963</v>
       </c>
       <c r="N8">
-        <v>0.939564486665299</v>
+        <v>1.947987582870733</v>
       </c>
       <c r="O8">
-        <v>1.933148846875667</v>
+        <v>3.955253747856034</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.125901105336368</v>
+        <v>0.4705386873024793</v>
       </c>
       <c r="C9">
-        <v>0.1277291320985796</v>
+        <v>0.0371231546221793</v>
       </c>
       <c r="D9">
-        <v>0.1699909067734211</v>
+        <v>0.1757046279797692</v>
       </c>
       <c r="E9">
-        <v>0.1166443793642564</v>
+        <v>0.1587643007657995</v>
       </c>
       <c r="F9">
-        <v>0.8831880497787665</v>
+        <v>1.5860717657782</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1128006031125182</v>
+        <v>0.1850307187896547</v>
       </c>
       <c r="K9">
-        <v>1.134474167314892</v>
+        <v>0.4247618543171257</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4058638957179568</v>
+        <v>0.2533735112605555</v>
       </c>
       <c r="N9">
-        <v>0.8370503741587996</v>
+        <v>1.904241703089423</v>
       </c>
       <c r="O9">
-        <v>2.03659481187043</v>
+        <v>3.923635116581323</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.34041733530691</v>
+        <v>0.5309518586561524</v>
       </c>
       <c r="C10">
-        <v>0.1495417914812123</v>
+        <v>0.04380158918949917</v>
       </c>
       <c r="D10">
-        <v>0.1977294172320114</v>
+        <v>0.1821358201218288</v>
       </c>
       <c r="E10">
-        <v>0.1320173303581953</v>
+        <v>0.1615494938843902</v>
       </c>
       <c r="F10">
-        <v>0.94466959933699</v>
+        <v>1.586728821723767</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1238534728932379</v>
+        <v>0.1862144641844665</v>
       </c>
       <c r="K10">
-        <v>1.350098601420115</v>
+        <v>0.486662157678353</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4807787817735729</v>
+        <v>0.2728428026374203</v>
       </c>
       <c r="N10">
-        <v>0.7678085731865503</v>
+        <v>1.874952586932343</v>
       </c>
       <c r="O10">
-        <v>2.132343567484043</v>
+        <v>3.909328351868169</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.438695576783232</v>
+        <v>0.5585481322935379</v>
       </c>
       <c r="C11">
-        <v>0.1594935053711453</v>
+        <v>0.04682898100824673</v>
       </c>
       <c r="D11">
-        <v>0.2105020366137325</v>
+        <v>0.185129576148455</v>
       </c>
       <c r="E11">
-        <v>0.1391732093928155</v>
+        <v>0.1628857550421543</v>
       </c>
       <c r="F11">
-        <v>0.9745304423594092</v>
+        <v>1.587796632561094</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1290889597862233</v>
+        <v>0.1868382272286908</v>
       </c>
       <c r="K11">
-        <v>1.448780543723586</v>
+        <v>0.5148824520858852</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.515206855690316</v>
+        <v>0.2817982479464689</v>
       </c>
       <c r="N11">
-        <v>0.7377258764039576</v>
+        <v>1.862246525303699</v>
       </c>
       <c r="O11">
-        <v>2.180763240858369</v>
+        <v>3.904755804067605</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.476027385688496</v>
+        <v>0.5690141187568543</v>
       </c>
       <c r="C12">
-        <v>0.1632675377573349</v>
+        <v>0.04797380137172524</v>
       </c>
       <c r="D12">
-        <v>0.215363156057208</v>
+        <v>0.186272957466258</v>
       </c>
       <c r="E12">
-        <v>0.1419083917815485</v>
+        <v>0.1634016835525642</v>
       </c>
       <c r="F12">
-        <v>0.9861305115758228</v>
+        <v>1.588311408281868</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1311037547899971</v>
+        <v>0.1870866697284299</v>
       </c>
       <c r="K12">
-        <v>1.486250211273614</v>
+        <v>0.5255771964203859</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5283007423665325</v>
+        <v>0.2852035000611366</v>
       </c>
       <c r="N12">
-        <v>0.7265468428672213</v>
+        <v>1.857523878761645</v>
       </c>
       <c r="O12">
-        <v>2.199848884721149</v>
+        <v>3.903302457282138</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.46798188446877</v>
+        <v>0.5667593834725437</v>
       </c>
       <c r="C13">
-        <v>0.1624544633835967</v>
+        <v>0.04772731527637575</v>
       </c>
       <c r="D13">
-        <v>0.2143151045409439</v>
+        <v>0.1860262794221796</v>
       </c>
       <c r="E13">
-        <v>0.1413181578172278</v>
+        <v>0.1632901288357935</v>
       </c>
       <c r="F13">
-        <v>0.9836188866527777</v>
+        <v>1.588195633595504</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1306683593744964</v>
+        <v>0.1870326193459704</v>
       </c>
       <c r="K13">
-        <v>1.478175696736827</v>
+        <v>0.5232735295836335</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5254781077276363</v>
+        <v>0.2844694974983142</v>
       </c>
       <c r="N13">
-        <v>0.7289448405020238</v>
+        <v>1.858537032341631</v>
       </c>
       <c r="O13">
-        <v>2.19570423949142</v>
+        <v>3.903603092176439</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.441764466006504</v>
+        <v>0.5594088600857106</v>
       </c>
       <c r="C14">
-        <v>0.1598038781899618</v>
+        <v>0.04692319818893509</v>
       </c>
       <c r="D14">
-        <v>0.2109014614355829</v>
+        <v>0.1852234487276405</v>
       </c>
       <c r="E14">
-        <v>0.1393977132851951</v>
+        <v>0.1629280023268187</v>
       </c>
       <c r="F14">
-        <v>0.9754788056844035</v>
+        <v>1.587836771368302</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1292540579685664</v>
+        <v>0.1868584216385543</v>
       </c>
       <c r="K14">
-        <v>1.45186107889046</v>
+        <v>0.5157621511338562</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5162829217067042</v>
+        <v>0.2820781201698424</v>
       </c>
       <c r="N14">
-        <v>0.7368018552020699</v>
+        <v>1.861856209151061</v>
       </c>
       <c r="O14">
-        <v>2.182318090322042</v>
+        <v>3.904630662224463</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.425721143659871</v>
+        <v>0.5549085044420679</v>
       </c>
       <c r="C15">
-        <v>0.1581810811889994</v>
+        <v>0.04643044494777371</v>
       </c>
       <c r="D15">
-        <v>0.2088137533764183</v>
+        <v>0.1847329536412161</v>
       </c>
       <c r="E15">
-        <v>0.138224756343444</v>
+        <v>0.1627074793407814</v>
       </c>
       <c r="F15">
-        <v>0.9705314767294766</v>
+        <v>1.587631333247501</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1283920285603486</v>
+        <v>0.186753313386987</v>
       </c>
       <c r="K15">
-        <v>1.435756246622674</v>
+        <v>0.5111622845591342</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5106581937317856</v>
+        <v>0.2806151527934233</v>
       </c>
       <c r="N15">
-        <v>0.7416424730590165</v>
+        <v>1.863900874579154</v>
       </c>
       <c r="O15">
-        <v>2.174217948784616</v>
+        <v>3.905296300491386</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.334009941297012</v>
+        <v>0.5291506272585593</v>
       </c>
       <c r="C16">
-        <v>0.1488921214938586</v>
+        <v>0.04360352285107183</v>
       </c>
       <c r="D16">
-        <v>0.1968979872025045</v>
+        <v>0.1819415350629328</v>
       </c>
       <c r="E16">
-        <v>0.1315531192348409</v>
+        <v>0.1614635560184468</v>
       </c>
       <c r="F16">
-        <v>0.9427579085674154</v>
+        <v>1.586674497465054</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1235156976429295</v>
+        <v>0.1861754135485754</v>
       </c>
       <c r="K16">
-        <v>1.343662755080828</v>
+        <v>0.4848190891079014</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4785363968934107</v>
+        <v>0.2722595150138858</v>
       </c>
       <c r="N16">
-        <v>0.7698037967391533</v>
+        <v>1.87579539092807</v>
       </c>
       <c r="O16">
-        <v>2.129281356337799</v>
+        <v>3.909666114794078</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.277936957241508</v>
+        <v>0.5133778376961118</v>
       </c>
       <c r="C17">
-        <v>0.1432020141709813</v>
+        <v>0.04186652852803263</v>
       </c>
       <c r="D17">
-        <v>0.1896290931806135</v>
+        <v>0.1802464854936829</v>
       </c>
       <c r="E17">
-        <v>0.1275033387630771</v>
+        <v>0.1607181575898906</v>
       </c>
       <c r="F17">
-        <v>0.9262184618622769</v>
+        <v>1.586284340195746</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1205790217852893</v>
+        <v>0.1858427130199232</v>
       </c>
       <c r="K17">
-        <v>1.287329123604877</v>
+        <v>0.4686737847660538</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4589246007229164</v>
+        <v>0.267158768205924</v>
       </c>
       <c r="N17">
-        <v>0.7874487181039029</v>
+        <v>1.883250526598499</v>
       </c>
       <c r="O17">
-        <v>2.102994897018505</v>
+        <v>3.912842505613838</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.245749521627232</v>
+        <v>0.5043165094056405</v>
       </c>
       <c r="C18">
-        <v>0.1399318592968797</v>
+        <v>0.04086645505074671</v>
       </c>
       <c r="D18">
-        <v>0.1854625929825886</v>
+        <v>0.1792779602543959</v>
       </c>
       <c r="E18">
-        <v>0.125189192869442</v>
+        <v>0.1602959461419147</v>
       </c>
       <c r="F18">
-        <v>0.9168822577879894</v>
+        <v>1.586132314727152</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1189093001662869</v>
+        <v>0.1856593801112041</v>
       </c>
       <c r="K18">
-        <v>1.254982352866193</v>
+        <v>0.4593932557598066</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4476768380396621</v>
+        <v>0.2642342609464663</v>
       </c>
       <c r="N18">
-        <v>0.7977302913080777</v>
+        <v>1.887596662243897</v>
       </c>
       <c r="O18">
-        <v>2.088330117739133</v>
+        <v>3.914851686231628</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.234861970100212</v>
+        <v>0.5012503637226473</v>
       </c>
       <c r="C19">
-        <v>0.1388250555056771</v>
+        <v>0.04052767720452266</v>
       </c>
       <c r="D19">
-        <v>0.1840542910413347</v>
+        <v>0.1789511401283903</v>
       </c>
       <c r="E19">
-        <v>0.1244082107568332</v>
+        <v>0.1601541141164979</v>
       </c>
       <c r="F19">
-        <v>0.9137509574319864</v>
+        <v>1.586093277872948</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1183472186727954</v>
+        <v>0.1855986862519146</v>
       </c>
       <c r="K19">
-        <v>1.244039252971049</v>
+        <v>0.4562520439689308</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4438739153674263</v>
+        <v>0.2632456771700546</v>
       </c>
       <c r="N19">
-        <v>0.8012339772257011</v>
+        <v>1.889078173374548</v>
       </c>
       <c r="O19">
-        <v>2.083441440727853</v>
+        <v>3.915563259258107</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.283899257383268</v>
+        <v>0.5150557678902032</v>
       </c>
       <c r="C20">
-        <v>0.143807452614837</v>
+        <v>0.04205153845622078</v>
       </c>
       <c r="D20">
-        <v>0.1904013758804126</v>
+        <v>0.18042626238541</v>
       </c>
       <c r="E20">
-        <v>0.1279328594575375</v>
+        <v>0.1607968318436619</v>
       </c>
       <c r="F20">
-        <v>0.9279606685221751</v>
+        <v>1.586318382851516</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1208896136904443</v>
+        <v>0.1858772989096451</v>
       </c>
       <c r="K20">
-        <v>1.293320148907668</v>
+        <v>0.4703918810612606</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4610089081531328</v>
+        <v>0.2677007894574146</v>
       </c>
       <c r="N20">
-        <v>0.7855565904327184</v>
+        <v>1.882450897262995</v>
       </c>
       <c r="O20">
-        <v>2.105745739131692</v>
+        <v>3.912485517116352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.449461875029641</v>
+        <v>0.561567460241605</v>
       </c>
       <c r="C21">
-        <v>0.1605822577279241</v>
+        <v>0.04715943037780335</v>
       </c>
       <c r="D21">
-        <v>0.2119034503299559</v>
+        <v>0.1854589967511515</v>
       </c>
       <c r="E21">
-        <v>0.1399610881391311</v>
+        <v>0.1630340989143164</v>
       </c>
       <c r="F21">
-        <v>0.9778616404700244</v>
+        <v>1.587939182360145</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1296685779941811</v>
+        <v>0.1869092558191099</v>
       </c>
       <c r="K21">
-        <v>1.459587449833862</v>
+        <v>0.5179682030808976</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5189821768715177</v>
+        <v>0.2827801466404551</v>
       </c>
       <c r="N21">
-        <v>0.7344882137243802</v>
+        <v>1.860878874424416</v>
       </c>
       <c r="O21">
-        <v>2.186229145216203</v>
+        <v>3.904321291675046</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.558350943247177</v>
+        <v>0.5920578391312574</v>
       </c>
       <c r="C22">
-        <v>0.1715785321654124</v>
+        <v>0.0504884564207515</v>
       </c>
       <c r="D22">
-        <v>0.2260996933852937</v>
+        <v>0.1888047390514629</v>
       </c>
       <c r="E22">
-        <v>0.1479713512621963</v>
+        <v>0.1645540561624514</v>
       </c>
       <c r="F22">
-        <v>1.012189629741371</v>
+        <v>1.589642004917593</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1355952263049076</v>
+        <v>0.1876550141399207</v>
       </c>
       <c r="K22">
-        <v>1.568849281110346</v>
+        <v>0.549110400445727</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5572050502192099</v>
+        <v>0.2927170083948312</v>
       </c>
       <c r="N22">
-        <v>0.7023560865140182</v>
+        <v>1.847298292990333</v>
       </c>
       <c r="O22">
-        <v>2.243228349893599</v>
+        <v>3.900606853225526</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.500166525046581</v>
+        <v>0.5757762764701511</v>
       </c>
       <c r="C23">
-        <v>0.1657061184300801</v>
+        <v>0.04871255924722107</v>
       </c>
       <c r="D23">
-        <v>0.2185089965191196</v>
+        <v>0.1870139088181588</v>
       </c>
       <c r="E23">
-        <v>0.1436817769293057</v>
+        <v>0.1637375547857687</v>
       </c>
       <c r="F23">
-        <v>0.9937041760038881</v>
+        <v>1.58867434239302</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1324139277012506</v>
+        <v>0.1872504718321579</v>
       </c>
       <c r="K23">
-        <v>1.510474137339486</v>
+        <v>0.5324849734143697</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5367719398022572</v>
+        <v>0.2874061097376028</v>
       </c>
       <c r="N23">
-        <v>0.7193886338424695</v>
+        <v>1.85449909617367</v>
       </c>
       <c r="O23">
-        <v>2.212386613673857</v>
+        <v>3.902441020758602</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.281203547991026</v>
+        <v>0.5142971548705759</v>
       </c>
       <c r="C24">
-        <v>0.1435337303714732</v>
+        <v>0.0419678999893307</v>
       </c>
       <c r="D24">
-        <v>0.1900521881541977</v>
+        <v>0.1803449666153369</v>
       </c>
       <c r="E24">
-        <v>0.1277386293006018</v>
+        <v>0.1607612434994223</v>
       </c>
       <c r="F24">
-        <v>0.9271724809713362</v>
+        <v>1.586302767004256</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1207491372956966</v>
+        <v>0.1858616378916977</v>
       </c>
       <c r="K24">
-        <v>1.290611482371901</v>
+        <v>0.4696151246366753</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4600665081573965</v>
+        <v>0.2674557167794163</v>
       </c>
       <c r="N24">
-        <v>0.7864115944560259</v>
+        <v>1.88281222254334</v>
       </c>
       <c r="O24">
-        <v>2.104500692868527</v>
+        <v>3.912646341469269</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.047416253705308</v>
+        <v>0.448395304279984</v>
       </c>
       <c r="C25">
-        <v>0.1197136252642821</v>
+        <v>0.03465464304244392</v>
       </c>
       <c r="D25">
-        <v>0.1598985774287058</v>
+        <v>0.1733973179343877</v>
       </c>
       <c r="E25">
-        <v>0.1111146042189404</v>
+        <v>0.1578003222436593</v>
       </c>
       <c r="F25">
-        <v>0.8620972985121469</v>
+        <v>1.58651251680034</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1088991511923396</v>
+        <v>0.1846705573212759</v>
       </c>
       <c r="K25">
-        <v>1.055495899878423</v>
+        <v>0.402024273450337</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3785438244600456</v>
+        <v>0.2462924803521744</v>
       </c>
       <c r="N25">
-        <v>0.8637478503487772</v>
+        <v>1.915575217445703</v>
       </c>
       <c r="O25">
-        <v>2.005326304540176</v>
+        <v>3.930621077509926</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_232/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4002345243975469</v>
+        <v>0.8767561954635141</v>
       </c>
       <c r="C2">
-        <v>0.0292379035167869</v>
+        <v>0.1022085525070509</v>
       </c>
       <c r="D2">
-        <v>0.1684952640472517</v>
+        <v>0.1380814871880602</v>
       </c>
       <c r="E2">
-        <v>0.1558357427434238</v>
+        <v>0.099295932820894</v>
       </c>
       <c r="F2">
-        <v>1.589051218795753</v>
+        <v>0.8192372146985463</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1840581092676743</v>
+        <v>0.1007206253599051</v>
       </c>
       <c r="K2">
-        <v>0.3524572108632924</v>
+        <v>0.8835705325064112</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2310193804041845</v>
+        <v>0.3193299365818874</v>
       </c>
       <c r="N2">
-        <v>1.941613291519175</v>
+        <v>0.9247310960060444</v>
       </c>
       <c r="O2">
-        <v>3.949852420747931</v>
+        <v>1.945353665385369</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3678260096117185</v>
+        <v>0.7617518386747122</v>
       </c>
       <c r="C3">
-        <v>0.02554740063331451</v>
+        <v>0.0903440047685109</v>
       </c>
       <c r="D3">
-        <v>0.1653073817920472</v>
+        <v>0.1234987968370689</v>
       </c>
       <c r="E3">
-        <v>0.1546393167853886</v>
+        <v>0.09151641843212843</v>
       </c>
       <c r="F3">
-        <v>1.592261207634152</v>
+        <v>0.793022351657676</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1838083673128992</v>
+        <v>0.09548066561080759</v>
       </c>
       <c r="K3">
-        <v>0.3189940532914477</v>
+        <v>0.7675394486577147</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2208632601734948</v>
+        <v>0.2795985678679074</v>
       </c>
       <c r="N3">
-        <v>1.960455524992266</v>
+        <v>0.9684449836922058</v>
       </c>
       <c r="O3">
-        <v>3.966629397327495</v>
+        <v>1.912049924261652</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.348042742285628</v>
+        <v>0.6913802399801057</v>
       </c>
       <c r="C4">
-        <v>0.02327198865151558</v>
+        <v>0.08305195227269735</v>
       </c>
       <c r="D4">
-        <v>0.1634166907763728</v>
+        <v>0.1146337808657165</v>
       </c>
       <c r="E4">
-        <v>0.1539715075597314</v>
+        <v>0.08684321662614281</v>
       </c>
       <c r="F4">
-        <v>1.594967748583379</v>
+        <v>0.7782243748658217</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1837366976301169</v>
+        <v>0.09240088362574994</v>
       </c>
       <c r="K4">
-        <v>0.2985130855275884</v>
+        <v>0.6964572113008671</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2147240888939876</v>
+        <v>0.2553673037791242</v>
       </c>
       <c r="N4">
-        <v>1.972615078615114</v>
+        <v>0.9964196806609165</v>
       </c>
       <c r="O4">
-        <v>3.978778437857443</v>
+        <v>1.894975864148478</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3400104637549646</v>
+        <v>0.6627531146758656</v>
       </c>
       <c r="C5">
-        <v>0.02234241728579889</v>
+        <v>0.08007771164432143</v>
       </c>
       <c r="D5">
-        <v>0.1626630749418041</v>
+        <v>0.1110420204926754</v>
       </c>
       <c r="E5">
-        <v>0.1537162120047846</v>
+        <v>0.0849634789272713</v>
       </c>
       <c r="F5">
-        <v>1.596255840223371</v>
+        <v>0.7725066788027846</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1837280565285297</v>
+        <v>0.09117880999453831</v>
       </c>
       <c r="K5">
-        <v>0.290183874743775</v>
+        <v>0.6675207963176888</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2122468196736591</v>
+        <v>0.2455296841864545</v>
       </c>
       <c r="N5">
-        <v>1.977718665749172</v>
+        <v>1.008098691272438</v>
       </c>
       <c r="O5">
-        <v>3.98419421570226</v>
+        <v>1.888832082413046</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3386785094795357</v>
+        <v>0.6580023076058126</v>
       </c>
       <c r="C6">
-        <v>0.02218792381748358</v>
+        <v>0.0795836556670082</v>
       </c>
       <c r="D6">
-        <v>0.162538958276059</v>
+        <v>0.1104468247558827</v>
       </c>
       <c r="E6">
-        <v>0.1536748389022264</v>
+        <v>0.08465279826407368</v>
       </c>
       <c r="F6">
-        <v>1.596480915109105</v>
+        <v>0.7715757483490648</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1837278645598772</v>
+        <v>0.09097783018444261</v>
       </c>
       <c r="K6">
-        <v>0.2888018531401286</v>
+        <v>0.6627174558947075</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2118369553211288</v>
+        <v>0.2438982538829677</v>
       </c>
       <c r="N6">
-        <v>1.978575080459729</v>
+        <v>1.010054665513265</v>
       </c>
       <c r="O6">
-        <v>3.985121591112957</v>
+        <v>1.887860098758935</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3479342958412701</v>
+        <v>0.6909939765804722</v>
       </c>
       <c r="C7">
-        <v>0.02325946146702051</v>
+        <v>0.08301185254195786</v>
       </c>
       <c r="D7">
-        <v>0.1634064588819513</v>
+        <v>0.1145852588541914</v>
       </c>
       <c r="E7">
-        <v>0.1539679963022955</v>
+        <v>0.0868177678825397</v>
       </c>
       <c r="F7">
-        <v>1.594984370313135</v>
+        <v>0.7781460160937144</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.183736497790008</v>
+        <v>0.09238427095042567</v>
       </c>
       <c r="K7">
-        <v>0.2984006856286499</v>
+        <v>0.6960668558512424</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2146905801785834</v>
+        <v>0.2552344867993419</v>
       </c>
       <c r="N7">
-        <v>1.972683306195194</v>
+        <v>0.996576065695268</v>
       </c>
       <c r="O7">
-        <v>3.978849594025561</v>
+        <v>1.894889755411313</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3890363294037229</v>
+        <v>0.8370458148091018</v>
       </c>
       <c r="C8">
-        <v>0.02796740286039778</v>
+        <v>0.09811860375094739</v>
       </c>
       <c r="D8">
-        <v>0.1673822942559724</v>
+        <v>0.1330339957370512</v>
       </c>
       <c r="E8">
-        <v>0.1554093764511997</v>
+        <v>0.09659122981897283</v>
       </c>
       <c r="F8">
-        <v>1.590005457046189</v>
+        <v>0.8099204005041969</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1839550630701439</v>
+        <v>0.09888432628726918</v>
       </c>
       <c r="K8">
-        <v>0.3409057801354152</v>
+        <v>0.8435230746948434</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2274975727689963</v>
+        <v>0.3055937962883419</v>
       </c>
       <c r="N8">
-        <v>1.947987582870733</v>
+        <v>0.9395644866652972</v>
       </c>
       <c r="O8">
-        <v>3.955253747856034</v>
+        <v>1.933148846875696</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4705386873024793</v>
+        <v>1.125901105336425</v>
       </c>
       <c r="C9">
-        <v>0.0371231546221793</v>
+        <v>0.127729132098267</v>
       </c>
       <c r="D9">
-        <v>0.1757046279797692</v>
+        <v>0.1699909067734637</v>
       </c>
       <c r="E9">
-        <v>0.1587643007657995</v>
+        <v>0.1166443793642742</v>
       </c>
       <c r="F9">
-        <v>1.5860717657782</v>
+        <v>0.8831880497787381</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1850307187896547</v>
+        <v>0.1128006031125537</v>
       </c>
       <c r="K9">
-        <v>0.4247618543171257</v>
+        <v>1.134474167314806</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2533735112605555</v>
+        <v>0.4058638957179426</v>
       </c>
       <c r="N9">
-        <v>1.904241703089423</v>
+        <v>0.8370503741587907</v>
       </c>
       <c r="O9">
-        <v>3.923635116581323</v>
+        <v>2.036594811870373</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5309518586561524</v>
+        <v>1.340417335306881</v>
       </c>
       <c r="C10">
-        <v>0.04380158918949917</v>
+        <v>0.1495417914812975</v>
       </c>
       <c r="D10">
-        <v>0.1821358201218288</v>
+        <v>0.1977294172322104</v>
       </c>
       <c r="E10">
-        <v>0.1615494938843902</v>
+        <v>0.1320173303582131</v>
       </c>
       <c r="F10">
-        <v>1.586728821723767</v>
+        <v>0.94466959933699</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1862144641844665</v>
+        <v>0.1238534728933374</v>
       </c>
       <c r="K10">
-        <v>0.486662157678353</v>
+        <v>1.350098601420228</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2728428026374203</v>
+        <v>0.4807787817735587</v>
       </c>
       <c r="N10">
-        <v>1.874952586932343</v>
+        <v>0.7678085731866124</v>
       </c>
       <c r="O10">
-        <v>3.909328351868169</v>
+        <v>2.132343567484043</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5585481322935379</v>
+        <v>1.438695576783203</v>
       </c>
       <c r="C11">
-        <v>0.04682898100824673</v>
+        <v>0.1594935053715858</v>
       </c>
       <c r="D11">
-        <v>0.185129576148455</v>
+        <v>0.210502036613903</v>
       </c>
       <c r="E11">
-        <v>0.1628857550421543</v>
+        <v>0.1391732093928155</v>
       </c>
       <c r="F11">
-        <v>1.587796632561094</v>
+        <v>0.974530442359395</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1868382272286908</v>
+        <v>0.1290889597861948</v>
       </c>
       <c r="K11">
-        <v>0.5148824520858852</v>
+        <v>1.448780543723529</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2817982479464689</v>
+        <v>0.515206855690316</v>
       </c>
       <c r="N11">
-        <v>1.862246525303699</v>
+        <v>0.7377258764040038</v>
       </c>
       <c r="O11">
-        <v>3.904755804067605</v>
+        <v>2.18076324085834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5690141187568543</v>
+        <v>1.476027385688695</v>
       </c>
       <c r="C12">
-        <v>0.04797380137172524</v>
+        <v>0.1632675377575765</v>
       </c>
       <c r="D12">
-        <v>0.186272957466258</v>
+        <v>0.2153631560573217</v>
       </c>
       <c r="E12">
-        <v>0.1634016835525642</v>
+        <v>0.1419083917815662</v>
       </c>
       <c r="F12">
-        <v>1.588311408281868</v>
+        <v>0.9861305115758512</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1870866697284299</v>
+        <v>0.1311037547899545</v>
       </c>
       <c r="K12">
-        <v>0.5255771964203859</v>
+        <v>1.486250211273727</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2852035000611366</v>
+        <v>0.5283007423665396</v>
       </c>
       <c r="N12">
-        <v>1.857523878761645</v>
+        <v>0.7265468428672177</v>
       </c>
       <c r="O12">
-        <v>3.903302457282138</v>
+        <v>2.199848884721291</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5667593834725437</v>
+        <v>1.467981884468657</v>
       </c>
       <c r="C13">
-        <v>0.04772731527637575</v>
+        <v>0.1624544633834972</v>
       </c>
       <c r="D13">
-        <v>0.1860262794221796</v>
+        <v>0.2143151045409439</v>
       </c>
       <c r="E13">
-        <v>0.1632901288357935</v>
+        <v>0.1413181578172313</v>
       </c>
       <c r="F13">
-        <v>1.588195633595504</v>
+        <v>0.9836188866527777</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1870326193459704</v>
+        <v>0.1306683593744751</v>
       </c>
       <c r="K13">
-        <v>0.5232735295836335</v>
+        <v>1.478175696736969</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2844694974983142</v>
+        <v>0.5254781077276434</v>
       </c>
       <c r="N13">
-        <v>1.858537032341631</v>
+        <v>0.7289448405020211</v>
       </c>
       <c r="O13">
-        <v>3.903603092176439</v>
+        <v>2.19570423949142</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5594088600857106</v>
+        <v>1.441764466006362</v>
       </c>
       <c r="C14">
-        <v>0.04692319818893509</v>
+        <v>0.1598038781895212</v>
       </c>
       <c r="D14">
-        <v>0.1852234487276405</v>
+        <v>0.2109014614358387</v>
       </c>
       <c r="E14">
-        <v>0.1629280023268187</v>
+        <v>0.1393977132851845</v>
       </c>
       <c r="F14">
-        <v>1.587836771368302</v>
+        <v>0.9754788056844177</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1868584216385543</v>
+        <v>0.1292540579685308</v>
       </c>
       <c r="K14">
-        <v>0.5157621511338562</v>
+        <v>1.451861078890516</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2820781201698424</v>
+        <v>0.5162829217066829</v>
       </c>
       <c r="N14">
-        <v>1.861856209151061</v>
+        <v>0.7368018552020903</v>
       </c>
       <c r="O14">
-        <v>3.904630662224463</v>
+        <v>2.182318090322042</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5549085044420679</v>
+        <v>1.425721143659871</v>
       </c>
       <c r="C15">
-        <v>0.04643044494777371</v>
+        <v>0.1581810811890279</v>
       </c>
       <c r="D15">
-        <v>0.1847329536412161</v>
+        <v>0.2088137533764041</v>
       </c>
       <c r="E15">
-        <v>0.1627074793407814</v>
+        <v>0.1382247563434582</v>
       </c>
       <c r="F15">
-        <v>1.587631333247501</v>
+        <v>0.9705314767294766</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.186753313386987</v>
+        <v>0.1283920285604054</v>
       </c>
       <c r="K15">
-        <v>0.5111622845591342</v>
+        <v>1.435756246622702</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2806151527934233</v>
+        <v>0.5106581937317713</v>
       </c>
       <c r="N15">
-        <v>1.863900874579154</v>
+        <v>0.7416424730590263</v>
       </c>
       <c r="O15">
-        <v>3.905296300491386</v>
+        <v>2.174217948784616</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5291506272585593</v>
+        <v>1.334009941296983</v>
       </c>
       <c r="C16">
-        <v>0.04360352285107183</v>
+        <v>0.1488921214933896</v>
       </c>
       <c r="D16">
-        <v>0.1819415350629328</v>
+        <v>0.1968979872025471</v>
       </c>
       <c r="E16">
-        <v>0.1614635560184468</v>
+        <v>0.1315531192348658</v>
       </c>
       <c r="F16">
-        <v>1.586674497465054</v>
+        <v>0.9427579085674296</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1861754135485754</v>
+        <v>0.1235156976429437</v>
       </c>
       <c r="K16">
-        <v>0.4848190891079014</v>
+        <v>1.343662755080771</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2722595150138858</v>
+        <v>0.4785363968934178</v>
       </c>
       <c r="N16">
-        <v>1.87579539092807</v>
+        <v>0.7698037967392004</v>
       </c>
       <c r="O16">
-        <v>3.909666114794078</v>
+        <v>2.129281356337714</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5133778376961118</v>
+        <v>1.277936957241394</v>
       </c>
       <c r="C17">
-        <v>0.04186652852803263</v>
+        <v>0.1432020141708392</v>
       </c>
       <c r="D17">
-        <v>0.1802464854936829</v>
+        <v>0.1896290931803719</v>
       </c>
       <c r="E17">
-        <v>0.1607181575898906</v>
+        <v>0.1275033387630451</v>
       </c>
       <c r="F17">
-        <v>1.586284340195746</v>
+        <v>0.9262184618622769</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1858427130199232</v>
+        <v>0.1205790217852964</v>
       </c>
       <c r="K17">
-        <v>0.4686737847660538</v>
+        <v>1.287329123604934</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.267158768205924</v>
+        <v>0.4589246007229093</v>
       </c>
       <c r="N17">
-        <v>1.883250526598499</v>
+        <v>0.7874487181039012</v>
       </c>
       <c r="O17">
-        <v>3.912842505613838</v>
+        <v>2.102994897018533</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5043165094056405</v>
+        <v>1.245749521627232</v>
       </c>
       <c r="C18">
-        <v>0.04086645505074671</v>
+        <v>0.1399318592971213</v>
       </c>
       <c r="D18">
-        <v>0.1792779602543959</v>
+        <v>0.1854625929824891</v>
       </c>
       <c r="E18">
-        <v>0.1602959461419147</v>
+        <v>0.1251891928694313</v>
       </c>
       <c r="F18">
-        <v>1.586132314727152</v>
+        <v>0.9168822577879894</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1856593801112041</v>
+        <v>0.1189093001662798</v>
       </c>
       <c r="K18">
-        <v>0.4593932557598066</v>
+        <v>1.254982352866222</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2642342609464663</v>
+        <v>0.4476768380396692</v>
       </c>
       <c r="N18">
-        <v>1.887596662243897</v>
+        <v>0.7977302913081319</v>
       </c>
       <c r="O18">
-        <v>3.914851686231628</v>
+        <v>2.08833011773919</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5012503637226473</v>
+        <v>1.234861970100326</v>
       </c>
       <c r="C19">
-        <v>0.04052767720452266</v>
+        <v>0.1388250555059045</v>
       </c>
       <c r="D19">
-        <v>0.1789511401283903</v>
+        <v>0.1840542910411216</v>
       </c>
       <c r="E19">
-        <v>0.1601541141164979</v>
+        <v>0.1244082107568332</v>
       </c>
       <c r="F19">
-        <v>1.586093277872948</v>
+        <v>0.9137509574319438</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1855986862519146</v>
+        <v>0.1183472186727741</v>
       </c>
       <c r="K19">
-        <v>0.4562520439689308</v>
+        <v>1.244039252971021</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2632456771700546</v>
+        <v>0.4438739153674476</v>
       </c>
       <c r="N19">
-        <v>1.889078173374548</v>
+        <v>0.801233977225686</v>
       </c>
       <c r="O19">
-        <v>3.915563259258107</v>
+        <v>2.083441440727768</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5150557678902032</v>
+        <v>1.28389925738324</v>
       </c>
       <c r="C20">
-        <v>0.04205153845622078</v>
+        <v>0.1438074526149791</v>
       </c>
       <c r="D20">
-        <v>0.18042626238541</v>
+        <v>0.1904013758802847</v>
       </c>
       <c r="E20">
-        <v>0.1607968318436619</v>
+        <v>0.1279328594575269</v>
       </c>
       <c r="F20">
-        <v>1.586318382851516</v>
+        <v>0.9279606685221751</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1858772989096451</v>
+        <v>0.1208896136905437</v>
       </c>
       <c r="K20">
-        <v>0.4703918810612606</v>
+        <v>1.293320148907668</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2677007894574146</v>
+        <v>0.4610089081531186</v>
       </c>
       <c r="N20">
-        <v>1.882450897262995</v>
+        <v>0.7855565904327069</v>
       </c>
       <c r="O20">
-        <v>3.912485517116352</v>
+        <v>2.105745739131692</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.561567460241605</v>
+        <v>1.449461875029641</v>
       </c>
       <c r="C21">
-        <v>0.04715943037780335</v>
+        <v>0.1605822577279099</v>
       </c>
       <c r="D21">
-        <v>0.1854589967511515</v>
+        <v>0.2119034503301833</v>
       </c>
       <c r="E21">
-        <v>0.1630340989143164</v>
+        <v>0.1399610881391382</v>
       </c>
       <c r="F21">
-        <v>1.587939182360145</v>
+        <v>0.9778616404700102</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1869092558191099</v>
+        <v>0.1296685779942877</v>
       </c>
       <c r="K21">
-        <v>0.5179682030808976</v>
+        <v>1.45958744983389</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2827801466404551</v>
+        <v>0.518982176871539</v>
       </c>
       <c r="N21">
-        <v>1.860878874424416</v>
+        <v>0.7344882137243776</v>
       </c>
       <c r="O21">
-        <v>3.904321291675046</v>
+        <v>2.186229145216174</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5920578391312574</v>
+        <v>1.558350943247149</v>
       </c>
       <c r="C22">
-        <v>0.0504884564207515</v>
+        <v>0.1715785321650571</v>
       </c>
       <c r="D22">
-        <v>0.1888047390514629</v>
+        <v>0.2260996933853079</v>
       </c>
       <c r="E22">
-        <v>0.1645540561624514</v>
+        <v>0.1479713512621927</v>
       </c>
       <c r="F22">
-        <v>1.589642004917593</v>
+        <v>1.012189629741343</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1876550141399207</v>
+        <v>0.135595226304936</v>
       </c>
       <c r="K22">
-        <v>0.549110400445727</v>
+        <v>1.568849281110374</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2927170083948312</v>
+        <v>0.5572050502192027</v>
       </c>
       <c r="N22">
-        <v>1.847298292990333</v>
+        <v>0.7023560865140146</v>
       </c>
       <c r="O22">
-        <v>3.900606853225526</v>
+        <v>2.243228349893599</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5757762764701511</v>
+        <v>1.500166525046325</v>
       </c>
       <c r="C23">
-        <v>0.04871255924722107</v>
+        <v>0.1657061184300801</v>
       </c>
       <c r="D23">
-        <v>0.1870139088181588</v>
+        <v>0.2185089965191054</v>
       </c>
       <c r="E23">
-        <v>0.1637375547857687</v>
+        <v>0.1436817769293022</v>
       </c>
       <c r="F23">
-        <v>1.58867434239302</v>
+        <v>0.9937041760038738</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1872504718321579</v>
+        <v>0.1324139277012506</v>
       </c>
       <c r="K23">
-        <v>0.5324849734143697</v>
+        <v>1.510474137339514</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2874061097376028</v>
+        <v>0.5367719398022643</v>
       </c>
       <c r="N23">
-        <v>1.85449909617367</v>
+        <v>0.7193886338425273</v>
       </c>
       <c r="O23">
-        <v>3.902441020758602</v>
+        <v>2.212386613673857</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5142971548705759</v>
+        <v>1.281203547991026</v>
       </c>
       <c r="C24">
-        <v>0.0419678999893307</v>
+        <v>0.1435337303712743</v>
       </c>
       <c r="D24">
-        <v>0.1803449666153369</v>
+        <v>0.1900521881542545</v>
       </c>
       <c r="E24">
-        <v>0.1607612434994223</v>
+        <v>0.1277386293006053</v>
       </c>
       <c r="F24">
-        <v>1.586302767004256</v>
+        <v>0.9271724809713362</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1858616378916977</v>
+        <v>0.1207491372957179</v>
       </c>
       <c r="K24">
-        <v>0.4696151246366753</v>
+        <v>1.290611482371986</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2674557167794163</v>
+        <v>0.4600665081574036</v>
       </c>
       <c r="N24">
-        <v>1.88281222254334</v>
+        <v>0.7864115944560224</v>
       </c>
       <c r="O24">
-        <v>3.912646341469269</v>
+        <v>2.104500692868498</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.448395304279984</v>
+        <v>1.047416253705535</v>
       </c>
       <c r="C25">
-        <v>0.03465464304244392</v>
+        <v>0.1197136252644242</v>
       </c>
       <c r="D25">
-        <v>0.1733973179343877</v>
+        <v>0.1598985774286348</v>
       </c>
       <c r="E25">
-        <v>0.1578003222436593</v>
+        <v>0.1111146042189404</v>
       </c>
       <c r="F25">
-        <v>1.58651251680034</v>
+        <v>0.8620972985121398</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1846705573212759</v>
+        <v>0.1088991511923325</v>
       </c>
       <c r="K25">
-        <v>0.402024273450337</v>
+        <v>1.055495899878309</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2462924803521744</v>
+        <v>0.3785438244600527</v>
       </c>
       <c r="N25">
-        <v>1.915575217445703</v>
+        <v>0.8637478503487435</v>
       </c>
       <c r="O25">
-        <v>3.930621077509926</v>
+        <v>2.005326304540205</v>
       </c>
     </row>
   </sheetData>
